--- a/US/data/BOC/APEP/CBRT/t2.xlsx
+++ b/US/data/BOC/APEP/CBRT/t2.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\US\data\BOC\APEP\CBRT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\DIRECTORATE\Demographic Internet\SEHSD\FFSB\Fertility tables\2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F3BA00D-1FAC-4C53-9D71-FE106E8DF6DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21750" windowHeight="10170"/>
   </bookViews>
   <sheets>
     <sheet name="T2" sheetId="1" r:id="rId1"/>
@@ -571,25 +570,25 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="#,##0.0"/>
-    <numFmt numFmtId="178" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -647,13 +646,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="新細明體"/>
-      <family val="3"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -674,13 +666,13 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -689,19 +681,19 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -710,7 +702,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -728,8 +720,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="千分位" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -9250,7 +9242,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -9260,7 +9252,7 @@
       <selection activeCell="A3" sqref="A3:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="5" width="12" style="2" customWidth="1"/>
@@ -10106,7 +10098,6 @@
     <mergeCell ref="A45:F45"/>
     <mergeCell ref="A47:C47"/>
   </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="88" orientation="portrait" r:id="rId1"/>
 </worksheet>
